--- a/SeleniumProject/src/test/java/com/qaa/testdata/TestData.xlsx
+++ b/SeleniumProject/src/test/java/com/qaa/testdata/TestData.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Virtusa\LP_Training_Project Docs\SeleniumProject\src\test\java\com\qa\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD91C92-19C6-40C4-A7C1-9EA0401CB595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{529045A1-FDBA-40A3-B30C-DD4C209AF62C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Category</t>
   </si>
@@ -49,25 +43,13 @@
     <t>Iphone12ProMax</t>
   </si>
   <si>
-    <t>Furniture</t>
-  </si>
-  <si>
-    <t>WoodenTable</t>
-  </si>
-  <si>
     <t>WingsPhantomEarBuds</t>
   </si>
   <si>
-    <t>Sofa</t>
-  </si>
-  <si>
     <t>ThePsychologyOfMoney</t>
   </si>
   <si>
     <t>earphones</t>
-  </si>
-  <si>
-    <t>bed</t>
   </si>
   <si>
     <t>Items</t>
@@ -94,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -285,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -479,27 +461,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C7C235-D8D6-49A3-9F1E-034A6CBD0C46}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -515,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -523,15 +505,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -539,49 +521,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_stripbooks_sr_pg1_1?ie=UTF8&amp;adId=A01451583B82K5U3Y9UWH&amp;url=%2FPsychology-Money-Morgan-Housel%2Fdp%2F9390166268%2Fref%3Dsr_1_11_sspa%3Fdchild%3D1%26keywords%3Dbooks%26qid%3D1619599576%26s%3Dbooks%26sr%3D1-11-spons%26psc%3D1&amp;qualifier=1619599576&amp;id=5164949676342240&amp;widgetName=sp_mtf" xr:uid="{664829B4-4E9E-4D5B-B795-E1CE869FCC0F}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_stripbooks_sr_pg1_1?ie=UTF8&amp;adId=A01451583B82K5U3Y9UWH&amp;url=%2FPsychology-Money-Morgan-Housel%2Fdp%2F9390166268%2Fref%3Dsr_1_11_sspa%3Fdchild%3D1%26keywords%3Dbooks%26qid%3D1619599576%26s%3Dbooks%26sr%3D1-11-spons%26psc%3D1&amp;qualifier=1619599576&amp;id=5164949676342240&amp;widgetName=sp_mtf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -589,48 +547,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63739F78-730F-4DDD-9929-921480F8DE2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
